--- a/zh-cn/SDTM_MSG_enV1.0final_cn_draft_20150201/CDISC标准中文版v20150201意见征求表模板.xlsx
+++ b/zh-cn/SDTM_MSG_enV1.0final_cn_draft_20150201/CDISC标准中文版v20150201意见征求表模板.xlsx
@@ -1,31 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="15180" windowHeight="8580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15760"/>
   </bookViews>
   <sheets>
     <sheet name="CDISC-Std-Comments" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Sylvia.Yao - Personal View" guid="{42272CE1-E44B-4A2F-B41F-FB107DB9DE00}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1440" windowHeight="680" activeSheetId="1"/>
+    <customWorkbookView name="Hmily Du - Personal View" guid="{C07B459E-32A5-4F8D-975B-1DF736F95C49}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1440" windowHeight="680" activeSheetId="1"/>
+    <customWorkbookView name="Lavender Lin - Personal View" guid="{B0ADA021-D16E-460E-8684-B29B11C6A835}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1435" windowHeight="647" activeSheetId="1"/>
+    <customWorkbookView name="Sherry Chen - Personal View" guid="{B47E695B-5F37-457B-946A-05AAE3ECE687}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1152" windowHeight="541" activeSheetId="1"/>
+    <customWorkbookView name="Wendy Wang - Personal View" guid="{7750496F-84DF-4A73-9ABB-B7781CA40F98}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1440" windowHeight="670" activeSheetId="1"/>
+    <customWorkbookView name="July - Personal View" guid="{FBC57C38-D05D-4642-A979-BA336D0C3BF2}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1435" windowHeight="262" activeSheetId="1"/>
+    <customWorkbookView name="Kelly Liu - Personal View" guid="{056CAC2B-EADE-408C-976C-8BB56530DC47}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1440" windowHeight="680" activeSheetId="1"/>
+    <customWorkbookView name="Lily Zhao - Personal View" guid="{B5B4EA4F-8933-47DE-AC48-BA8351C84584}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1362" windowHeight="538" activeSheetId="1"/>
     <customWorkbookView name="Zibao Zhang - Personal View" guid="{27B62367-1C33-45C3-ACC2-75E9A4C09D07}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1020" windowHeight="543" activeSheetId="1"/>
-    <customWorkbookView name="Lily Zhao - Personal View" guid="{B5B4EA4F-8933-47DE-AC48-BA8351C84584}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1362" windowHeight="538" activeSheetId="1"/>
-    <customWorkbookView name="Kelly Liu - Personal View" guid="{056CAC2B-EADE-408C-976C-8BB56530DC47}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1440" windowHeight="680" activeSheetId="1"/>
-    <customWorkbookView name="July - Personal View" guid="{FBC57C38-D05D-4642-A979-BA336D0C3BF2}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1435" windowHeight="262" activeSheetId="1"/>
-    <customWorkbookView name="Wendy Wang - Personal View" guid="{7750496F-84DF-4A73-9ABB-B7781CA40F98}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1440" windowHeight="670" activeSheetId="1"/>
-    <customWorkbookView name="Sherry Chen - Personal View" guid="{B47E695B-5F37-457B-946A-05AAE3ECE687}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1152" windowHeight="541" activeSheetId="1"/>
-    <customWorkbookView name="Lavender Lin - Personal View" guid="{B0ADA021-D16E-460E-8684-B29B11C6A835}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1435" windowHeight="647" activeSheetId="1"/>
-    <customWorkbookView name="Hmily Du - Personal View" guid="{C07B459E-32A5-4F8D-975B-1DF736F95C49}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1440" windowHeight="680" activeSheetId="1"/>
-    <customWorkbookView name="Sylvia.Yao - Personal View" guid="{42272CE1-E44B-4A2F-B41F-FB107DB9DE00}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1440" windowHeight="680" activeSheetId="1"/>
   </customWorkbookViews>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>#</t>
   </si>
@@ -124,110 +129,15 @@
   <si>
     <t>示例</t>
   </si>
-  <si>
-    <r>
-      <t xml:space="preserve">CDISC标准中文版(v20150201)征求意见表截止日期2015年5月31日。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>英文版下载地址：</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>http://www.cdisc.org/standards-and-implementations</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-中文版下载地址：</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>http://www.cdiscchina.org/forum.php?mod=viewthread&amp;tid=12322</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-审阅意见请email至</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>cdiscchina@cdisc.org</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>cdiscchina@qq.com</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-（邮件标题标明标准及版本，如'[comments] sdtmv1.2')</t>
-    </r>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -259,33 +169,7 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
-      <color rgb="FF0070C0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FF0070C0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF0070C0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -314,27 +198,27 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -343,16 +227,16 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -388,16 +272,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -412,25 +296,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -731,48 +615,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="6" customWidth="1"/>
     <col min="7" max="7" width="7" style="6" customWidth="1"/>
     <col min="8" max="8" width="8" style="6" customWidth="1"/>
-    <col min="9" max="9" width="40.42578125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="132.33203125" style="6" customWidth="1"/>
     <col min="10" max="10" width="29" style="6" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" style="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="8.1640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="22" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="21"/>
-    </row>
-    <row r="2" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="19" customFormat="1" ht="300" customHeight="1">
+      <c r="A1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="18"/>
+    </row>
+    <row r="2" spans="1:13" ht="36">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -813,7 +695,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="24">
       <c r="A3" s="13" t="s">
         <v>22</v>
       </c>
@@ -854,7 +736,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -871,7 +753,7 @@
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -888,7 +770,7 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -905,7 +787,7 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -922,7 +804,7 @@
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -939,7 +821,7 @@
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -956,7 +838,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -973,7 +855,7 @@
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -990,7 +872,7 @@
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -1007,7 +889,7 @@
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -1024,7 +906,7 @@
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -1041,7 +923,7 @@
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -1058,7 +940,7 @@
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -1075,7 +957,7 @@
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -1092,7 +974,7 @@
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -1109,7 +991,7 @@
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -1126,7 +1008,7 @@
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -1143,7 +1025,7 @@
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -1160,7 +1042,7 @@
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -1177,7 +1059,7 @@
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -1194,7 +1076,7 @@
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -1211,7 +1093,7 @@
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -1228,7 +1110,7 @@
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -1245,7 +1127,7 @@
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27" s="3">
         <v>24</v>
       </c>
@@ -1262,7 +1144,7 @@
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28" s="3">
         <v>25</v>
       </c>
@@ -1279,7 +1161,7 @@
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13">
       <c r="A29" s="3">
         <v>26</v>
       </c>
@@ -1296,7 +1178,7 @@
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="A30" s="3">
         <v>27</v>
       </c>
@@ -1313,7 +1195,7 @@
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31" s="3">
         <v>28</v>
       </c>
@@ -1330,7 +1212,7 @@
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32" s="3">
         <v>29</v>
       </c>
@@ -1347,7 +1229,7 @@
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13">
       <c r="A33" s="3">
         <v>30</v>
       </c>
@@ -1364,7 +1246,7 @@
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13">
       <c r="A34" s="3">
         <v>31</v>
       </c>
@@ -1381,7 +1263,7 @@
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13">
       <c r="A35" s="3">
         <v>32</v>
       </c>
@@ -1398,7 +1280,7 @@
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13">
       <c r="A36" s="3">
         <v>33</v>
       </c>
@@ -1415,7 +1297,7 @@
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13">
       <c r="A37" s="3">
         <v>34</v>
       </c>
@@ -1432,7 +1314,7 @@
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13">
       <c r="A38" s="3">
         <v>35</v>
       </c>
@@ -1449,7 +1331,7 @@
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13">
       <c r="A39" s="3">
         <v>36</v>
       </c>
@@ -1466,7 +1348,7 @@
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13">
       <c r="A40" s="3">
         <v>37</v>
       </c>
@@ -1483,7 +1365,7 @@
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13">
       <c r="A41" s="3">
         <v>38</v>
       </c>
@@ -1500,7 +1382,7 @@
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13">
       <c r="A42" s="3">
         <v>39</v>
       </c>
@@ -1517,7 +1399,7 @@
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13">
       <c r="A43" s="3">
         <v>40</v>
       </c>
@@ -1536,58 +1418,49 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{27B62367-1C33-45C3-ACC2-75E9A4C09D07}" scale="85" topLeftCell="A21">
-      <selection activeCell="A52" sqref="A25:IV52"/>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-      <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+    <customSheetView guid="{42272CE1-E44B-4A2F-B41F-FB107DB9DE00}" topLeftCell="A6">
+      <selection activeCell="A12" sqref="A12:IV12"/>
+      <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
+      <headerFooter alignWithMargins="0"/>
+    </customSheetView>
+    <customSheetView guid="{C07B459E-32A5-4F8D-975B-1DF736F95C49}" topLeftCell="B1">
+      <selection activeCell="I4" sqref="I4"/>
+      <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
+      <headerFooter alignWithMargins="0"/>
+    </customSheetView>
+    <customSheetView guid="{B0ADA021-D16E-460E-8684-B29B11C6A835}" scale="120" topLeftCell="C1">
+      <selection sqref="A1:G1"/>
+      <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
+      <headerFooter alignWithMargins="0"/>
+    </customSheetView>
+    <customSheetView guid="{B47E695B-5F37-457B-946A-05AAE3ECE687}" topLeftCell="B4">
+      <selection activeCell="H10" sqref="H10"/>
+      <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
+      <headerFooter alignWithMargins="0"/>
+    </customSheetView>
+    <customSheetView guid="{7750496F-84DF-4A73-9ABB-B7781CA40F98}">
+      <selection activeCell="H7" sqref="H7"/>
+      <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
+      <headerFooter alignWithMargins="0"/>
+    </customSheetView>
+    <customSheetView guid="{FBC57C38-D05D-4642-A979-BA336D0C3BF2}" topLeftCell="B10">
+      <selection activeCell="H12" sqref="H12"/>
+      <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
+      <headerFooter alignWithMargins="0"/>
+    </customSheetView>
+    <customSheetView guid="{056CAC2B-EADE-408C-976C-8BB56530DC47}">
+      <selection activeCell="H2" sqref="H2:H15"/>
+      <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
     <customSheetView guid="{B5B4EA4F-8933-47DE-AC48-BA8351C84584}">
       <selection activeCell="I2" sqref="I2"/>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-      <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+      <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{056CAC2B-EADE-408C-976C-8BB56530DC47}">
-      <selection activeCell="H2" sqref="H2:H15"/>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-      <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
-      <headerFooter alignWithMargins="0"/>
-    </customSheetView>
-    <customSheetView guid="{FBC57C38-D05D-4642-A979-BA336D0C3BF2}" topLeftCell="B10">
-      <selection activeCell="H12" sqref="H12"/>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-      <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
-      <headerFooter alignWithMargins="0"/>
-    </customSheetView>
-    <customSheetView guid="{7750496F-84DF-4A73-9ABB-B7781CA40F98}">
-      <selection activeCell="H7" sqref="H7"/>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-      <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId5"/>
-      <headerFooter alignWithMargins="0"/>
-    </customSheetView>
-    <customSheetView guid="{B47E695B-5F37-457B-946A-05AAE3ECE687}" topLeftCell="B4">
-      <selection activeCell="H10" sqref="H10"/>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-      <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId6"/>
-      <headerFooter alignWithMargins="0"/>
-    </customSheetView>
-    <customSheetView guid="{B0ADA021-D16E-460E-8684-B29B11C6A835}" scale="120" topLeftCell="C1">
-      <selection sqref="A1:G1"/>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-      <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId7"/>
-      <headerFooter alignWithMargins="0"/>
-    </customSheetView>
-    <customSheetView guid="{C07B459E-32A5-4F8D-975B-1DF736F95C49}" topLeftCell="B1">
-      <selection activeCell="I4" sqref="I4"/>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-      <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId8"/>
-      <headerFooter alignWithMargins="0"/>
-    </customSheetView>
-    <customSheetView guid="{42272CE1-E44B-4A2F-B41F-FB107DB9DE00}" topLeftCell="A6">
-      <selection activeCell="A12" sqref="A12:IV12"/>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-      <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId9"/>
+    <customSheetView guid="{27B62367-1C33-45C3-ACC2-75E9A4C09D07}" scale="85" topLeftCell="A21">
+      <selection activeCell="A52" sqref="A25:IV52"/>
+      <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
   </customSheetViews>
@@ -1596,7 +1469,12 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId10"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>